--- a/data/Setup.xlsx
+++ b/data/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fichtnergmbh-my.sharepoint.com/personal/flaizd_fis_fichtnergroup_com/Documents/Masterarbeit/Repository/Master-Thesis/OPTIMIZER/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="586" documentId="8_{6AEDBBA3-4D35-4A2A-8A1D-E5BF92F27C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1FB7F1F-490C-4F64-9655-FEC6AAB94464}"/>
+  <xr:revisionPtr revIDLastSave="681" documentId="8_{6AEDBBA3-4D35-4A2A-8A1D-E5BF92F27C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D135D8DB-5AC1-473D-94CD-E2F881E7CF4C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="2" activeTab="7" xr2:uid="{2C9D1742-10EB-41B0-B231-58DC9394551A}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{2C9D1742-10EB-41B0-B231-58DC9394551A}"/>
   </bookViews>
   <sheets>
     <sheet name="CST" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="325">
   <si>
     <t>name</t>
   </si>
@@ -1055,34 +1055,16 @@
     <t>$/kWh</t>
   </si>
   <si>
-    <t>link5</t>
-  </si>
-  <si>
     <t>link0</t>
   </si>
   <si>
-    <t>bus1 solar</t>
+    <t>Demand 1</t>
   </si>
   <si>
-    <t>bus2 solar</t>
+    <t>Store</t>
   </si>
   <si>
-    <t>bus3 solar</t>
-  </si>
-  <si>
-    <t>bus3 fossil</t>
-  </si>
-  <si>
-    <t>solar heat</t>
-  </si>
-  <si>
-    <t>fossil heat</t>
-  </si>
-  <si>
-    <t>TES</t>
-  </si>
-  <si>
-    <t>Load</t>
+    <t>bus3</t>
   </si>
 </sst>
 </file>
@@ -1157,12 +1139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1189,7 +1177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1218,6 +1206,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1273,7 +1262,7 @@
   <autoFilter ref="A7:G180" xr:uid="{A1A8C0EC-B48A-4A18-B217-C0EB14485B01}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Loads"/>
+        <filter val="Links"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1671,7 +1660,7 @@
   <dimension ref="A1:B8761"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,7 +1671,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>generators!A2</f>
@@ -71781,7 +71770,7 @@
   </sheetPr>
   <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
@@ -71798,15 +71787,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -71816,13 +71805,13 @@
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -71832,13 +71821,13 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -71848,13 +71837,13 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -71864,13 +71853,13 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -71880,13 +71869,13 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
@@ -73636,7 +73625,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>178</v>
       </c>
@@ -73659,7 +73648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>178</v>
       </c>
@@ -73682,7 +73671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>178</v>
       </c>
@@ -73705,7 +73694,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>178</v>
       </c>
@@ -73728,7 +73717,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>178</v>
       </c>
@@ -73751,7 +73740,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>178</v>
       </c>
@@ -73772,7 +73761,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>178</v>
       </c>
@@ -73795,7 +73784,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>178</v>
       </c>
@@ -73818,7 +73807,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>178</v>
       </c>
@@ -73841,7 +73830,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>178</v>
       </c>
@@ -73864,7 +73853,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>178</v>
       </c>
@@ -73887,7 +73876,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>178</v>
       </c>
@@ -73910,7 +73899,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>178</v>
       </c>
@@ -73933,7 +73922,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>178</v>
       </c>
@@ -73956,7 +73945,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>178</v>
       </c>
@@ -73979,7 +73968,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>178</v>
       </c>
@@ -74002,7 +73991,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>178</v>
       </c>
@@ -74025,7 +74014,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>178</v>
       </c>
@@ -74048,7 +74037,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>178</v>
       </c>
@@ -74071,7 +74060,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>178</v>
       </c>
@@ -74094,7 +74083,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>178</v>
       </c>
@@ -74117,7 +74106,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>178</v>
       </c>
@@ -74140,7 +74129,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>178</v>
       </c>
@@ -74163,7 +74152,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>178</v>
       </c>
@@ -74186,7 +74175,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>178</v>
       </c>
@@ -74209,7 +74198,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>178</v>
       </c>
@@ -74232,7 +74221,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>178</v>
       </c>
@@ -74255,7 +74244,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>178</v>
       </c>
@@ -74278,7 +74267,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>178</v>
       </c>
@@ -74301,7 +74290,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>178</v>
       </c>
@@ -74324,7 +74313,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>178</v>
       </c>
@@ -74347,7 +74336,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>178</v>
       </c>
@@ -74370,7 +74359,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>178</v>
       </c>
@@ -74393,7 +74382,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>178</v>
       </c>
@@ -74416,7 +74405,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>178</v>
       </c>
@@ -74439,7 +74428,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>178</v>
       </c>
@@ -74462,7 +74451,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>178</v>
       </c>
@@ -74485,7 +74474,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>178</v>
       </c>
@@ -74508,7 +74497,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>178</v>
       </c>
@@ -74531,7 +74520,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>178</v>
       </c>
@@ -74554,7 +74543,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>178</v>
       </c>
@@ -74577,7 +74566,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>178</v>
       </c>
@@ -74600,7 +74589,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>216</v>
       </c>
@@ -74623,7 +74612,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>216</v>
       </c>
@@ -74646,7 +74635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>216</v>
       </c>
@@ -74669,7 +74658,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>216</v>
       </c>
@@ -74692,7 +74681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>216</v>
       </c>
@@ -74715,7 +74704,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>216</v>
       </c>
@@ -74738,7 +74727,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>216</v>
       </c>
@@ -74761,7 +74750,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>216</v>
       </c>
@@ -74784,7 +74773,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>216</v>
       </c>
@@ -74807,7 +74796,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>216</v>
       </c>
@@ -75983,10 +75972,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76001,34 +75990,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" t="s">
-        <v>328</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -76041,10 +76022,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76052,36 +76033,14 @@
     <col min="1" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -76094,10 +76053,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76105,7 +76064,7 @@
     <col min="1" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -76124,45 +76083,63 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>287</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1">
         <v>550000</v>
       </c>
       <c r="E2" s="1">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D3" s="1">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="E3" s="1">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -76195,10 +76172,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76206,7 +76183,7 @@
     <col min="1" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -76219,47 +76196,51 @@
       <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>324</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -76275,8 +76256,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76297,13 +76278,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -76316,10 +76297,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76329,7 +76310,7 @@
     <col min="6" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -76345,11 +76326,14 @@
       <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -76357,15 +76341,18 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>324</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>287</v>
       </c>
     </row>

--- a/data/Setup.xlsx
+++ b/data/Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fichtnergmbh-my.sharepoint.com/personal/flaizd_fis_fichtnergroup_com/Documents/Masterarbeit/Repository/Master-Thesis/OPTIMIZER/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="681" documentId="8_{6AEDBBA3-4D35-4A2A-8A1D-E5BF92F27C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D135D8DB-5AC1-473D-94CD-E2F881E7CF4C}"/>
+  <xr:revisionPtr revIDLastSave="811" documentId="8_{6AEDBBA3-4D35-4A2A-8A1D-E5BF92F27C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{741FF5BD-7930-45CF-9B6B-1E2176613B89}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{2C9D1742-10EB-41B0-B231-58DC9394551A}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C9D1742-10EB-41B0-B231-58DC9394551A}"/>
   </bookViews>
   <sheets>
     <sheet name="CST" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="352">
   <si>
     <t>name</t>
   </si>
@@ -1019,9 +1019,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>$/kW</t>
-  </si>
-  <si>
     <t>solarfield_capacity_th</t>
   </si>
   <si>
@@ -1061,10 +1058,94 @@
     <t>Demand 1</t>
   </si>
   <si>
-    <t>Store</t>
+    <t>bus3</t>
   </si>
   <si>
-    <t>bus3</t>
+    <t>bus4</t>
+  </si>
+  <si>
+    <t>solar heat</t>
+  </si>
+  <si>
+    <t>bus5</t>
+  </si>
+  <si>
+    <t>bus6</t>
+  </si>
+  <si>
+    <t>bus7</t>
+  </si>
+  <si>
+    <t>PV power</t>
+  </si>
+  <si>
+    <t>Wind power</t>
+  </si>
+  <si>
+    <t>fossil heat</t>
+  </si>
+  <si>
+    <t>bus8</t>
+  </si>
+  <si>
+    <t>bus9</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>link2</t>
+  </si>
+  <si>
+    <t>link3</t>
+  </si>
+  <si>
+    <t>link4</t>
+  </si>
+  <si>
+    <t>link5</t>
+  </si>
+  <si>
+    <t>link6</t>
+  </si>
+  <si>
+    <t>link7</t>
+  </si>
+  <si>
+    <t>link8</t>
+  </si>
+  <si>
+    <t>link9</t>
+  </si>
+  <si>
+    <t>link10</t>
+  </si>
+  <si>
+    <t>link11</t>
+  </si>
+  <si>
+    <t>link12</t>
+  </si>
+  <si>
+    <t>TES</t>
+  </si>
+  <si>
+    <t>ETES</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>PV PPA</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Wind PPA</t>
+  </si>
+  <si>
+    <t>$/MW</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1343,7 @@
   <autoFilter ref="A7:G180" xr:uid="{A1A8C0EC-B48A-4A18-B217-C0EB14485B01}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Links"/>
+        <filter val="Generators"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1581,8 +1662,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1597,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -1605,7 +1686,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -1616,7 +1697,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3" s="3">
         <v>16.3</v>
@@ -1627,18 +1708,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B4" s="3">
-        <v>578</v>
+        <v>578000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" s="3">
         <v>0.8</v>
@@ -1657,10 +1738,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B8761"/>
+  <dimension ref="A1:C8761"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,7 +1750,7 @@
     <col min="2" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -1677,8 +1758,11 @@
         <f>generators!A2</f>
         <v>CST</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -1686,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44927.041666666664</v>
       </c>
@@ -1694,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44927.083333333336</v>
       </c>
@@ -1702,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44927.125</v>
       </c>
@@ -1710,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44927.166666666664</v>
       </c>
@@ -1718,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44927.208333333336</v>
       </c>
@@ -1726,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44927.25</v>
       </c>
@@ -1734,7 +1818,7 @@
         <v>5.7454847000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44927.291666666664</v>
       </c>
@@ -1742,7 +1826,7 @@
         <v>0.61360152199999995</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44927.333333333336</v>
       </c>
@@ -1750,7 +1834,7 @@
         <v>0.80254205199999995</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44927.375</v>
       </c>
@@ -1758,7 +1842,7 @@
         <v>0.78101369799999998</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44927.416666666664</v>
       </c>
@@ -1766,7 +1850,7 @@
         <v>0.95269678800000002</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44927.458333333336</v>
       </c>
@@ -1774,7 +1858,7 @@
         <v>0.95259804599999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44927.5</v>
       </c>
@@ -1782,7 +1866,7 @@
         <v>0.95264544200000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44927.541666666664</v>
       </c>
@@ -1790,7 +1874,7 @@
         <v>0.95290875399999997</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44927.583333333336</v>
       </c>
@@ -71770,7 +71854,7 @@
   </sheetPr>
   <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
@@ -72452,7 +72536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>162</v>
       </c>
@@ -72475,7 +72559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
@@ -72498,7 +72582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>162</v>
       </c>
@@ -72521,7 +72605,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>162</v>
       </c>
@@ -72544,7 +72628,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>162</v>
       </c>
@@ -72567,7 +72651,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>162</v>
       </c>
@@ -72590,7 +72674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>162</v>
       </c>
@@ -72613,7 +72697,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>162</v>
       </c>
@@ -72636,7 +72720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>162</v>
       </c>
@@ -72659,7 +72743,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>162</v>
       </c>
@@ -72682,7 +72766,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>162</v>
       </c>
@@ -72705,7 +72789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>162</v>
       </c>
@@ -72728,7 +72812,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>162</v>
       </c>
@@ -72751,7 +72835,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>162</v>
       </c>
@@ -72774,7 +72858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>162</v>
       </c>
@@ -72797,7 +72881,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>162</v>
       </c>
@@ -72820,7 +72904,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>162</v>
       </c>
@@ -72843,7 +72927,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>162</v>
       </c>
@@ -72866,7 +72950,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>162</v>
       </c>
@@ -72889,7 +72973,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>162</v>
       </c>
@@ -72912,7 +72996,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>162</v>
       </c>
@@ -72935,7 +73019,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>162</v>
       </c>
@@ -72958,7 +73042,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>162</v>
       </c>
@@ -72981,7 +73065,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>162</v>
       </c>
@@ -73004,7 +73088,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>162</v>
       </c>
@@ -73027,7 +73111,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>162</v>
       </c>
@@ -73050,7 +73134,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>162</v>
       </c>
@@ -73073,7 +73157,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>162</v>
       </c>
@@ -73096,7 +73180,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>162</v>
       </c>
@@ -73119,7 +73203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>162</v>
       </c>
@@ -73142,7 +73226,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>162</v>
       </c>
@@ -73165,7 +73249,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>162</v>
       </c>
@@ -73188,7 +73272,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>162</v>
       </c>
@@ -73211,7 +73295,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>162</v>
       </c>
@@ -73234,7 +73318,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>162</v>
       </c>
@@ -73257,7 +73341,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>162</v>
       </c>
@@ -73280,7 +73364,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>162</v>
       </c>
@@ -73303,7 +73387,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>162</v>
       </c>
@@ -73326,7 +73410,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>162</v>
       </c>
@@ -73349,7 +73433,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>162</v>
       </c>
@@ -73372,7 +73456,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>162</v>
       </c>
@@ -73395,7 +73479,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>162</v>
       </c>
@@ -73418,7 +73502,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>162</v>
       </c>
@@ -73625,7 +73709,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>178</v>
       </c>
@@ -73648,7 +73732,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>178</v>
       </c>
@@ -73671,7 +73755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>178</v>
       </c>
@@ -73694,7 +73778,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>178</v>
       </c>
@@ -73717,7 +73801,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>178</v>
       </c>
@@ -73740,7 +73824,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>178</v>
       </c>
@@ -73761,7 +73845,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>178</v>
       </c>
@@ -73784,7 +73868,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>178</v>
       </c>
@@ -73807,7 +73891,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>178</v>
       </c>
@@ -73830,7 +73914,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>178</v>
       </c>
@@ -73853,7 +73937,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>178</v>
       </c>
@@ -73876,7 +73960,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>178</v>
       </c>
@@ -73899,7 +73983,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>178</v>
       </c>
@@ -73922,7 +74006,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>178</v>
       </c>
@@ -73945,7 +74029,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>178</v>
       </c>
@@ -73968,7 +74052,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>178</v>
       </c>
@@ -73991,7 +74075,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>178</v>
       </c>
@@ -74014,7 +74098,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>178</v>
       </c>
@@ -74037,7 +74121,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>178</v>
       </c>
@@ -74060,7 +74144,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>178</v>
       </c>
@@ -74083,7 +74167,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>178</v>
       </c>
@@ -74106,7 +74190,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>178</v>
       </c>
@@ -74129,7 +74213,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>178</v>
       </c>
@@ -74152,7 +74236,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>178</v>
       </c>
@@ -74175,7 +74259,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>178</v>
       </c>
@@ -74198,7 +74282,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>178</v>
       </c>
@@ -74221,7 +74305,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>178</v>
       </c>
@@ -74244,7 +74328,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>178</v>
       </c>
@@ -74267,7 +74351,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>178</v>
       </c>
@@ -74290,7 +74374,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>178</v>
       </c>
@@ -74313,7 +74397,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>178</v>
       </c>
@@ -74336,7 +74420,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>178</v>
       </c>
@@ -74359,7 +74443,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>178</v>
       </c>
@@ -74382,7 +74466,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>178</v>
       </c>
@@ -74405,7 +74489,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>178</v>
       </c>
@@ -74428,7 +74512,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>178</v>
       </c>
@@ -74451,7 +74535,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>178</v>
       </c>
@@ -74474,7 +74558,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>178</v>
       </c>
@@ -74497,7 +74581,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>178</v>
       </c>
@@ -74520,7 +74604,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>178</v>
       </c>
@@ -74543,7 +74627,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>178</v>
       </c>
@@ -74566,7 +74650,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>178</v>
       </c>
@@ -75911,7 +75995,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -75919,7 +76003,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="3">
         <v>50</v>
@@ -75930,7 +76014,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -75941,18 +76025,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" s="3">
         <v>85</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="3">
         <v>0.8</v>
@@ -75972,10 +76056,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -75993,7 +76077,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -76001,14 +76085,62 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -76022,10 +76154,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76040,6 +76172,31 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -76053,10 +76210,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76098,7 +76255,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="D2" s="1">
         <v>550000</v>
@@ -76107,7 +76264,7 @@
         <v>3000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>324</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -76118,27 +76275,131 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>287</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>3500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="1">
+        <v>600000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>100</v>
       </c>
     </row>
@@ -76172,10 +76433,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76205,7 +76466,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -76228,10 +76489,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -76240,6 +76501,226 @@
         <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>287</v>
       </c>
     </row>
@@ -76257,7 +76738,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76278,13 +76759,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C2" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -76297,10 +76778,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76341,19 +76822,36 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>324</v>
       </c>
       <c r="F2" s="1">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>287</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
